--- a/dtpu_configurations/only_integer16/80mhz/mxu_8x8/timing.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_8x8/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>1.502876877784729</v>
+        <v>0.7957456707954407</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.01338573731482029</v>
+        <v>0.027944868430495262</v>
       </c>
     </row>
   </sheetData>
